--- a/biology/Botanique/Gerhard_Lang/Gerhard_Lang.xlsx
+++ b/biology/Botanique/Gerhard_Lang/Gerhard_Lang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerhard Lang, né le 21 octobre 1924 à Ravensburg et mort le 19 juin 2016 à Biberach an der Riss, était un botaniste allemand, spécialisé dans l'écologie végétale, la géobotanique et l'histoire de la végétation du Quaternaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerhard Lang, né le 21 octobre 1924 à Ravensburg et mort le 19 juin 2016 à Biberach an der Riss, était un botaniste allemand, spécialisé dans l'écologie végétale, la géobotanique et l'histoire de la végétation du Quaternaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Vie personnelle et carrière académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant ses années de lycée à Ravensburg, Lang fut un des élèves de Karl Bertsch. Il commença ses études en botanique et zoologie, avec des mineures en chimie et physique, à l'Université de Fribourg-en-Brisgau en 1946, puis changea pour l'Université de Göttingen où il obtint son doctorat en biologie en 1952 pour son étude sur l'histoire de la végétation et de la flore du sud-ouest de l'Allemagne à la fin de la dernière glaciation, sous la supervision de Franz Firbas. Entre 1952 et 1975, Lang travailla aux Landessammlungen für Naturkunde (aujourd'hui Staatliches Museum für Naturkunde) à Karlsruhe en tant que conservateur et directeur adjoint du musée. En 1962, Lang devint chargé de cours en géobotanique à l'Université de Karlsruhe et en 1966, il présenta son mémoire d'habilitation sur la végétation macrophytique du lac de Constance. L'Université de Karlsruhe le nomma professeur à l'Institut de Botanique en 1972. En 1975, il fut nommé professeur titulaire et directeur de l'Institut de Systématique et de Géobotanique et du Jardin Botanique de Berne, Université de Berne, en Suisse, succédant à Max Welten. En 1989, après la retraite de Lang et son statut de professeur émérite, il retourna dans le sud de l'Allemagne, la région où il avait grandi.
 </t>
@@ -542,7 +556,9 @@
           <t>Voyages de recherche et visites d'études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lang voyagea beaucoup dans le cadre de ses recherches et activités botaniques, notamment avec des visites au Massif Central français en 1956 ; à l'École de Botanique de Cambridge, UK en 1959 ; dans les Alpes australiennes et à l'Université Nationale Australienne à Canberra en 1965 ; en Sibérie en 1971 ; en Arménie en 1975 ; dans l'ouest du Canada et des États-Unis en 1978 ; en Australie tropicale et centrale en 1981 ; et en Argentine en 1983.
 </t>
@@ -573,7 +589,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant son temps à Karlsruhe, les recherches de Lang se concentrèrent sur la cartographie de la végétation à l'échelle 1:25 000 basée sur les relevés phytosociologiques classiques de la plaine du Rhin supérieur, de la Forêt-Noire et de la région du lac de Constance, ainsi que sur l'étude des dépôts lacustres et tourbeux en ce qui concerne l'histoire de la végétation du sud-ouest de l'Allemagne. Pendant son séjour à Berne, ses recherches portèrent sur la région alpine, avec une attention particulière à l'étude des processus dynamiques de la végétation et des changements climatiques dans le passé, ainsi qu'au développement d'approches multi-proxies en paléoécologie. Il introduisit de nouveaux équipements et méthodologies, en particulier en ce qui concerne le carottage subaquatique depuis un radeau permettant l'échantillonnage des sédiments au centre des lacs, ce qui fournit de nouvelles perspectives sur les reconstitutions locales et régionales des conditions environnementales passées. En conséquence, ses recherches sur l'écologie et l'histoire de la végétation firent la transition vers la paléoécologie multi-proxies moderne. Après sa retraite, Lang publia un ouvrage majeur sur l'histoire de la végétation quaternaire en Europe.
 </t>
